--- a/Feisst Electrical/35225/struct.xlsx
+++ b/Feisst Electrical/35225/struct.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Feisst Electrical\35225\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59855870-D1A6-411D-B782-FCE05149B25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43B44E1-5C69-4FF4-A32F-1E109B4D5019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="1320" windowWidth="28890" windowHeight="19455" xr2:uid="{AC5113EB-C6D5-4B97-9170-BBD284AC2BEC}"/>
+    <workbookView xWindow="8490" yWindow="1395" windowWidth="28890" windowHeight="18450" xr2:uid="{AC5113EB-C6D5-4B97-9170-BBD284AC2BEC}"/>
   </bookViews>
   <sheets>
     <sheet name="struct" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="32">
   <si>
     <t>resource</t>
   </si>
@@ -59,13 +59,70 @@
   </si>
   <si>
     <t>Tier 9</t>
+  </si>
+  <si>
+    <t>Site QA</t>
+  </si>
+  <si>
+    <t>Switchboard's</t>
+  </si>
+  <si>
+    <t>Ground Floor</t>
+  </si>
+  <si>
+    <t>First Fix</t>
+  </si>
+  <si>
+    <t>Work shop</t>
+  </si>
+  <si>
+    <t>Second Fix</t>
+  </si>
+  <si>
+    <t>Floor Boxes</t>
+  </si>
+  <si>
+    <t>Large Workshop Lighting</t>
+  </si>
+  <si>
+    <t>Large Workshop DB2</t>
+  </si>
+  <si>
+    <t>Offices + TV</t>
+  </si>
+  <si>
+    <t>Emergency Exit</t>
+  </si>
+  <si>
+    <t>Track Lighting Existing</t>
+  </si>
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>QA - Cable Tray</t>
+  </si>
+  <si>
+    <t>QA - First Fix</t>
+  </si>
+  <si>
+    <t>QA - Second Fix</t>
+  </si>
+  <si>
+    <t>checklist</t>
+  </si>
+  <si>
+    <t>FEL SM Weekly Site Checklist</t>
+  </si>
+  <si>
+    <t>Switchboard</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,8 +257,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -379,6 +456,78 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAD1DC"/>
+        <bgColor rgb="FFEAD1DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor rgb="FFEAD1DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor rgb="FFEAD1DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FFEAD1DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -542,8 +691,23 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="15" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -919,11 +1083,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E815DE-B877-4AFA-B9B2-ED8E95723021}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="5.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -966,6 +1143,285 @@
         <v>12</v>
       </c>
     </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
